--- a/biology/Botanique/Reinette_Clochard/Reinette_Clochard.xlsx
+++ b/biology/Botanique/Reinette_Clochard/Reinette_Clochard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La reinette clochard (aussi appelée Rochelle, clocharde, pomme clocharde ou reinette de Parthenay) est une variétés de pomme reinette à couteau, née à Secondigny dans les Deux-Sèvres assez répandue en Charente et en Vendée.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La reinette clochard est une pomme de taille moyenne à la forme légèrement aplatie.
 Sa peau rugueuse d'un beau jaune soutenu est tachetée de petits points bruns lorsqu'elle est mûre.
@@ -545,9 +559,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un croisement avec Golden Delicious, réalisé en 1958 par l'INRA de Bordeaux puis sélectionné par l'INRA d'Angers a donné deux descendants[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un croisement avec Golden Delicious, réalisé en 1958 par l'INRA de Bordeaux puis sélectionné par l'INRA d'Angers a donné deux descendants :
 Charden
 Belchard Chantecler</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Groupe de floraison: B[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe de floraison: B.
 La reinette clochard est pollinisée par Chailleux, Grand'Mère, reine des reinettes, reinette de Caux.
 </t>
         </is>
@@ -609,7 +627,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Caractéristique rare chez les variétés européennes, l'arbre au port érigé est un spur (entre-nœuds courts, feuilles groupées en bouquets). Il est moyennement vigoureux et long à mettre à fruit, mais il donne abondamment quasiment tous les ans, contrairement à certains pommiers qui ne donnent qu'une année sur deux.
 Sa floraison tardive lui permet d'éviter les gelées printanières.
